--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>365849.9801879484</v>
+        <v>370033.1901704888</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462386</v>
+        <v>3854815.050462392</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10110391.89330059</v>
+        <v>10110391.89330058</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7713174.903459015</v>
+        <v>7713174.903459012</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>304.0074039714629</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -674,7 +676,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>311.0590250133811</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -801,7 +803,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734891</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>91.98633910696994</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>116.8763835457725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>251.6908806169665</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>232.5361573632254</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291307</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1051,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864689</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>42.95384504529643</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>336.6327140501638</v>
       </c>
       <c r="C8" t="n">
-        <v>197.8422002085939</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>130.417892858628</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -1379,13 +1381,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>313.2666781675496</v>
       </c>
       <c r="H11" t="n">
-        <v>320.2430998025017</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S12" t="n">
         <v>133.5813703291298</v>
@@ -1512,7 +1514,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>187.4140068734882</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>134.1713099644714</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>316.5487336740557</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,7 +1691,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047351</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091628</v>
       </c>
       <c r="S15" t="n">
         <v>133.5813703291298</v>
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>207.5605110160266</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -1856,10 +1858,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>324.1983974055597</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1980,7 +1982,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V18" t="n">
-        <v>220.3146016126436</v>
+        <v>220.3146016126434</v>
       </c>
       <c r="W18" t="n">
         <v>227.816073408046</v>
@@ -2014,16 +2016,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6176495403388</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>113.1667354347866</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>336.6327140501647</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>210.2858739186766</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.4536877805769</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6483185807187</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -2324,16 +2326,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>247.0383598451311</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>304.007403971462</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>72.74014232123758</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>159.3149947016329</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>401.0173642475174</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>301.3901221890773</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V28" t="n">
-        <v>53.03638470914613</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,10 +2794,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>313.9559688839217</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>161.4085122120583</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2953,25 +2955,25 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.1807224884998</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>182.04438917907</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>5.034567788452384</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -3083,19 +3085,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>4.582516932845865</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3187,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>6.024008024449764</v>
       </c>
       <c r="G34" t="n">
-        <v>20.91946317727888</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>31.70081824578365</v>
+        <v>133.1263411214935</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>72.30123682227985</v>
+        <v>87.95308749070819</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>293.0683194783559</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>220.550764568896</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552484</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -3661,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>119.0208929202426</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>147.8279795613426</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>162.1147045466214</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>161.4085122120592</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>163.1726582438467</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>99.9005421603009</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>378.9487899620075</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>39.03885150049273</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>66.03149870010103</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>165.6158245190445</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2058.57031924742</v>
+        <v>1594.15472433407</v>
       </c>
       <c r="C2" t="n">
-        <v>1665.394817750351</v>
+        <v>1594.15472433407</v>
       </c>
       <c r="D2" t="n">
-        <v>1279.953688967018</v>
+        <v>1594.15472433407</v>
       </c>
       <c r="E2" t="n">
-        <v>877.3701640835627</v>
+        <v>1191.571199450614</v>
       </c>
       <c r="F2" t="n">
-        <v>460.4757256135405</v>
+        <v>774.6767609805921</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>361.5140054685953</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K2" t="n">
         <v>406.2953261290054</v>
@@ -4337,43 +4339,43 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M2" t="n">
-        <v>899.6156178475343</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N2" t="n">
-        <v>1427.426901484996</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O2" t="n">
-        <v>1867.466502377325</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P2" t="n">
-        <v>2215.653994508847</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.64850507718</v>
+        <v>1994.649470045467</v>
       </c>
       <c r="X2" t="n">
-        <v>2365.64850507718</v>
+        <v>1994.649470045467</v>
       </c>
       <c r="Y2" t="n">
-        <v>2365.64850507718</v>
+        <v>1994.649470045467</v>
       </c>
     </row>
     <row r="3">
@@ -4401,52 +4403,52 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J3" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834974</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L3" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M3" t="n">
-        <v>1549.231189288413</v>
+        <v>1374.52913135418</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.763130931309</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="O3" t="n">
-        <v>2131.28341352229</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="C4" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="D4" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="E4" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T4" t="n">
-        <v>2365.64850507718</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="U4" t="n">
-        <v>2365.64850507718</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="V4" t="n">
-        <v>2099.669159898005</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="W4" t="n">
-        <v>1816.338757829182</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="X4" t="n">
-        <v>1582.258435612165</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="Y4" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1965.153759365783</v>
+        <v>371.396020535053</v>
       </c>
       <c r="C5" t="n">
-        <v>1965.153759365783</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D5" t="n">
-        <v>1579.712630582451</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E5" t="n">
-        <v>1177.129105698996</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F5" t="n">
-        <v>922.895892954585</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G5" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K5" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N5" t="n">
-        <v>1832.61545280471</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O5" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012245</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>1377.774808715764</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>1006.775773684051</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.64850507718</v>
+        <v>771.8907662464499</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.64850507718</v>
+        <v>771.8907662464499</v>
       </c>
     </row>
     <row r="6">
@@ -4638,37 +4640,37 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K6" t="n">
-        <v>272.5108437565973</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L6" t="n">
-        <v>272.5108437565973</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M6" t="n">
-        <v>858.0088487631995</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769802</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
         <v>2206.800784875113</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948.7599926430961</v>
+        <v>1790.039713567123</v>
       </c>
       <c r="C7" t="n">
-        <v>948.7599926430961</v>
+        <v>1619.834595633112</v>
       </c>
       <c r="D7" t="n">
-        <v>847.4030175052487</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="E7" t="n">
-        <v>691.8442053644512</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K7" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M7" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N7" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O7" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P7" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q7" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>2198.35979344178</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>1975.247732258424</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2327.655591362702</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C8" t="n">
-        <v>2127.814985091395</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D8" t="n">
-        <v>1742.373856308063</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K8" t="n">
         <v>406.2953261290054</v>
@@ -4817,37 +4819,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362702</v>
+        <v>1544.288363774713</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.655591362702</v>
+        <v>1173.289328743001</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.655591362702</v>
+        <v>783.8367236760574</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.655591362702</v>
+        <v>387.3460145966586</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J9" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K9" t="n">
-        <v>160.427952321271</v>
+        <v>140.077671309995</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5108437565973</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X9" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029717</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1965.153759365783</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="C11" t="n">
-        <v>1571.978257868714</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="D11" t="n">
-        <v>1186.537129085382</v>
+        <v>1183.221921503051</v>
       </c>
       <c r="E11" t="n">
-        <v>783.9536042019261</v>
+        <v>780.6383966195958</v>
       </c>
       <c r="F11" t="n">
-        <v>783.9536042019261</v>
+        <v>363.7439581495736</v>
       </c>
       <c r="G11" t="n">
-        <v>370.7908486899292</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L11" t="n">
-        <v>540.6332618200724</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M11" t="n">
-        <v>1086.634161864653</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N11" t="n">
-        <v>1614.445445502115</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O11" t="n">
-        <v>2054.485046394444</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y11" t="n">
-        <v>2365.64850507718</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154361</v>
+        <v>194.5661265746813</v>
       </c>
       <c r="L12" t="n">
-        <v>530.8790559998569</v>
+        <v>678.1322124729945</v>
       </c>
       <c r="M12" t="n">
-        <v>1116.377061006459</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.875066013061</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O12" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
         <v>2341.731461975244</v>
@@ -5194,16 +5196,16 @@
         <v>210.7856656383638</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.31297010154361</v>
+        <v>1965.153759365782</v>
       </c>
       <c r="C14" t="n">
-        <v>47.31297010154361</v>
+        <v>1571.978257868713</v>
       </c>
       <c r="D14" t="n">
-        <v>47.31297010154361</v>
+        <v>1186.537129085381</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154361</v>
+        <v>783.9536042019251</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0591657319029</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K14" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L14" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M14" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N14" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O14" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U14" t="n">
-        <v>1681.888704297768</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V14" t="n">
-        <v>1339.781895001287</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W14" t="n">
-        <v>968.782859969574</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X14" t="n">
-        <v>579.3302549026308</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y14" t="n">
-        <v>182.839545823232</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D15" t="n">
         <v>565.9357554231472</v>
@@ -5349,58 +5351,58 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L15" t="n">
-        <v>367.0521161637701</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M15" t="n">
-        <v>623.6437572083089</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O15" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P15" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X15" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1579.705190930838</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="C17" t="n">
-        <v>1579.705190930838</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="D17" t="n">
-        <v>1194.264062147506</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E17" t="n">
-        <v>791.6805372640504</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F17" t="n">
-        <v>374.7860987940281</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L17" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M17" t="n">
-        <v>1086.634161864653</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N17" t="n">
-        <v>1614.445445502115</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O17" t="n">
-        <v>2054.485046394444</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="X17" t="n">
-        <v>1976.195900010237</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="Y17" t="n">
-        <v>1579.705190930838</v>
+        <v>2199.13495001823</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K18" t="n">
-        <v>140.0776713099957</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L18" t="n">
-        <v>623.6437572083089</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M18" t="n">
-        <v>623.6437572083089</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.141762214911</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5637,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>399.450245395098</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>399.450245395098</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>399.450245395098</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>399.450245395098</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>399.450245395098</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5701,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U19" t="n">
-        <v>427.6021490532311</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V19" t="n">
-        <v>161.6228038740554</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="W19" t="n">
-        <v>47.31297010154361</v>
+        <v>399.450245395098</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>399.450245395098</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>399.450245395098</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.31297010154361</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="C20" t="n">
-        <v>47.31297010154361</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="D20" t="n">
-        <v>47.31297010154361</v>
+        <v>1552.200305079836</v>
       </c>
       <c r="E20" t="n">
-        <v>47.31297010154361</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154361</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
-        <v>173.6308686433316</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L20" t="n">
-        <v>666.9511603618604</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M20" t="n">
-        <v>1212.952060406441</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N20" t="n">
-        <v>1740.763344043903</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O20" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P20" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T20" t="n">
-        <v>2142.147902636597</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U20" t="n">
-        <v>1886.395173071196</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="V20" t="n">
-        <v>1544.288363774714</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="W20" t="n">
-        <v>1173.289328743002</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="X20" t="n">
-        <v>783.8367236760583</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="Y20" t="n">
-        <v>387.3460145966595</v>
+        <v>1937.641433863168</v>
       </c>
     </row>
     <row r="21">
@@ -5823,22 +5825,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L21" t="n">
-        <v>272.5108437565964</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M21" t="n">
-        <v>858.0088487631986</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N21" t="n">
         <v>1443.506853769801</v>
@@ -5884,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>210.7856656383638</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="C22" t="n">
-        <v>210.7856656383638</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D22" t="n">
-        <v>210.7856656383638</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E22" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F22" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G22" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H22" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I22" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5932,28 +5934,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S22" t="n">
-        <v>948.7599926430961</v>
+        <v>766.8249752144843</v>
       </c>
       <c r="T22" t="n">
-        <v>713.0409408113302</v>
+        <v>766.8249752144843</v>
       </c>
       <c r="U22" t="n">
-        <v>427.6021490532311</v>
+        <v>766.8249752144843</v>
       </c>
       <c r="V22" t="n">
-        <v>427.6021490532311</v>
+        <v>766.8249752144843</v>
       </c>
       <c r="W22" t="n">
-        <v>427.6021490532311</v>
+        <v>766.8249752144843</v>
       </c>
       <c r="X22" t="n">
-        <v>210.7856656383638</v>
+        <v>766.8249752144843</v>
       </c>
       <c r="Y22" t="n">
-        <v>210.7856656383638</v>
+        <v>543.7129140311276</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1399.546347628718</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C23" t="n">
-        <v>1006.370846131649</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D23" t="n">
-        <v>620.9297173483167</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E23" t="n">
-        <v>620.9297173483167</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F23" t="n">
-        <v>620.9297173483167</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G23" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L23" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M23" t="n">
-        <v>1086.634161864653</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N23" t="n">
-        <v>1614.445445502115</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O23" t="n">
-        <v>2054.485046394444</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T23" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U23" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V23" t="n">
-        <v>1800.041093340115</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W23" t="n">
-        <v>1800.041093340115</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X23" t="n">
-        <v>1800.041093340115</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y23" t="n">
-        <v>1800.041093340115</v>
+        <v>2058.57031924742</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6062,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154361</v>
+        <v>194.5661265746813</v>
       </c>
       <c r="L24" t="n">
-        <v>530.8790559998569</v>
+        <v>678.1322124729945</v>
       </c>
       <c r="M24" t="n">
-        <v>1116.377061006459</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N24" t="n">
-        <v>1701.875066013061</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O24" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P24" t="n">
         <v>2365.648505077179</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.31297010154361</v>
+        <v>2180.440486385878</v>
       </c>
       <c r="C25" t="n">
-        <v>47.31297010154361</v>
+        <v>2180.440486385878</v>
       </c>
       <c r="D25" t="n">
-        <v>47.31297010154361</v>
+        <v>2180.440486385878</v>
       </c>
       <c r="E25" t="n">
-        <v>47.31297010154361</v>
+        <v>2024.881674245081</v>
       </c>
       <c r="F25" t="n">
-        <v>47.31297010154361</v>
+        <v>1951.406783011507</v>
       </c>
       <c r="G25" t="n">
-        <v>47.31297010154361</v>
+        <v>1783.152729110953</v>
       </c>
       <c r="H25" t="n">
-        <v>47.31297010154361</v>
+        <v>1627.674178072447</v>
       </c>
       <c r="I25" t="n">
-        <v>47.31297010154361</v>
+        <v>1494.579752709525</v>
       </c>
       <c r="J25" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K25" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L25" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M25" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N25" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O25" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P25" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q25" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R25" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S25" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T25" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U25" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V25" t="n">
-        <v>787.8357555707396</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W25" t="n">
-        <v>504.5053535019172</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X25" t="n">
-        <v>270.4250312849002</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.31297010154361</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1181.465960502145</v>
+        <v>1713.405066432379</v>
       </c>
       <c r="C26" t="n">
-        <v>788.2904590050753</v>
+        <v>1713.405066432379</v>
       </c>
       <c r="D26" t="n">
-        <v>788.2904590050753</v>
+        <v>1327.963937649047</v>
       </c>
       <c r="E26" t="n">
-        <v>788.2904590050753</v>
+        <v>1327.963937649047</v>
       </c>
       <c r="F26" t="n">
-        <v>371.396020535053</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G26" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K26" t="n">
         <v>406.2953261290054</v>
@@ -6239,37 +6241,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T26" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U26" t="n">
-        <v>1886.395173071196</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V26" t="n">
-        <v>1886.395173071196</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="W26" t="n">
-        <v>1886.395173071196</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="X26" t="n">
-        <v>1886.395173071196</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="Y26" t="n">
-        <v>1581.960706213542</v>
+        <v>1713.405066432379</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F27" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K27" t="n">
-        <v>367.0521161637701</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L27" t="n">
-        <v>850.6182020620834</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M27" t="n">
-        <v>1209.141762214911</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N27" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O27" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P27" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6348,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K28" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M28" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N28" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P28" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>2038.931431892307</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>1803.212380060541</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>1517.773588302442</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V28" t="n">
-        <v>1464.201482535628</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W28" t="n">
-        <v>1464.201482535628</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1281.393958586371</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C29" t="n">
-        <v>888.2184570893016</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D29" t="n">
-        <v>502.7773283059694</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E29" t="n">
-        <v>502.7773283059694</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F29" t="n">
-        <v>502.7773283059694</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G29" t="n">
-        <v>502.7773283059694</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H29" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K29" t="n">
         <v>406.2953261290054</v>
@@ -6476,37 +6478,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O29" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P29" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R29" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T29" t="n">
-        <v>1937.641433863169</v>
+        <v>2202.609603852878</v>
       </c>
       <c r="U29" t="n">
-        <v>1681.888704297768</v>
+        <v>1946.856874287477</v>
       </c>
       <c r="V29" t="n">
-        <v>1681.888704297768</v>
+        <v>1604.750064990995</v>
       </c>
       <c r="W29" t="n">
-        <v>1681.888704297768</v>
+        <v>1233.751029959283</v>
       </c>
       <c r="X29" t="n">
-        <v>1681.888704297768</v>
+        <v>844.2984248923394</v>
       </c>
       <c r="Y29" t="n">
-        <v>1681.888704297768</v>
+        <v>447.8077158129405</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F30" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J30" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K30" t="n">
-        <v>160.4279523212711</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L30" t="n">
-        <v>272.5108437565973</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M30" t="n">
-        <v>858.0088487631995</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.506853769802</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O30" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6585,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1632.455536436182</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="C31" t="n">
-        <v>1632.455536436182</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="D31" t="n">
-        <v>1632.455536436182</v>
+        <v>507.6880877875118</v>
       </c>
       <c r="E31" t="n">
-        <v>1632.455536436182</v>
+        <v>507.6880877875118</v>
       </c>
       <c r="F31" t="n">
-        <v>1632.455536436182</v>
+        <v>350.3621530004848</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.201482535628</v>
+        <v>350.3621530004848</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>2181.76528368418</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V31" t="n">
-        <v>1915.785938505004</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W31" t="n">
-        <v>1632.455536436182</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X31" t="n">
-        <v>1632.455536436182</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="Y31" t="n">
-        <v>1632.455536436182</v>
+        <v>663.3212008849971</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1201.453214517072</v>
+        <v>769.6569440406602</v>
       </c>
       <c r="C32" t="n">
-        <v>1201.453214517072</v>
+        <v>376.4814425435907</v>
       </c>
       <c r="D32" t="n">
-        <v>1201.453214517072</v>
+        <v>376.4814425435907</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.453214517072</v>
+        <v>376.4814425435907</v>
       </c>
       <c r="F32" t="n">
-        <v>784.5587760470498</v>
+        <v>376.4814425435907</v>
       </c>
       <c r="G32" t="n">
         <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K32" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L32" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M32" t="n">
-        <v>1049.610128415868</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N32" t="n">
-        <v>1577.42141205333</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O32" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R32" t="n">
-        <v>2327.655591362702</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S32" t="n">
-        <v>2161.142036303753</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T32" t="n">
-        <v>1937.641433863169</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U32" t="n">
-        <v>1933.012628880497</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="V32" t="n">
-        <v>1590.905819584015</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="W32" t="n">
-        <v>1590.905819584015</v>
+        <v>1566.642398831456</v>
       </c>
       <c r="X32" t="n">
-        <v>1201.453214517072</v>
+        <v>1566.642398831456</v>
       </c>
       <c r="Y32" t="n">
-        <v>1201.453214517072</v>
+        <v>1170.151689752057</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F33" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J33" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K33" t="n">
-        <v>160.4279523212711</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L33" t="n">
-        <v>643.9940382195844</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M33" t="n">
-        <v>643.9940382195844</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N33" t="n">
-        <v>1209.141762214911</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="O33" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P33" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6822,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>682.7806474639203</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="C34" t="n">
-        <v>512.5755295299095</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="D34" t="n">
-        <v>512.5755295299095</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="E34" t="n">
-        <v>357.016717389112</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="F34" t="n">
-        <v>357.016717389112</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G34" t="n">
-        <v>335.8859465029718</v>
+        <v>335.8859465029717</v>
       </c>
       <c r="H34" t="n">
         <v>180.4073954644657</v>
       </c>
       <c r="I34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6883,25 +6885,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T34" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U34" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="V34" t="n">
-        <v>682.7806474639203</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="W34" t="n">
-        <v>682.7806474639203</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="X34" t="n">
-        <v>682.7806474639203</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="Y34" t="n">
-        <v>682.7806474639203</v>
+        <v>510.2248569938795</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>610.8466170372428</v>
+        <v>1938.202986295758</v>
       </c>
       <c r="C35" t="n">
-        <v>217.6711155401734</v>
+        <v>1938.202986295758</v>
       </c>
       <c r="D35" t="n">
-        <v>217.6711155401734</v>
+        <v>1552.761857512426</v>
       </c>
       <c r="E35" t="n">
-        <v>217.6711155401734</v>
+        <v>1150.17833262897</v>
       </c>
       <c r="F35" t="n">
-        <v>217.6711155401734</v>
+        <v>733.2838941589479</v>
       </c>
       <c r="G35" t="n">
-        <v>217.6711155401734</v>
+        <v>320.121138646951</v>
       </c>
       <c r="H35" t="n">
         <v>185.6500870090788</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K35" t="n">
         <v>406.2953261290054</v>
@@ -6950,37 +6952,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="U35" t="n">
-        <v>2109.895775511779</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="V35" t="n">
-        <v>1767.788966215297</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="W35" t="n">
-        <v>1396.789931183585</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="X35" t="n">
-        <v>1007.337326116642</v>
+        <v>1938.202986295758</v>
       </c>
       <c r="Y35" t="n">
-        <v>610.8466170372428</v>
+        <v>1938.202986295758</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7010,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L36" t="n">
-        <v>47.31297010154361</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M36" t="n">
-        <v>623.643757208308</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N36" t="n">
         <v>1209.14176221491</v>
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.31297010154361</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M37" t="n">
         <v>479.5672294235493</v>
@@ -7117,28 +7119,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U37" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V37" t="n">
-        <v>120.3445224472808</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W37" t="n">
-        <v>47.31297010154361</v>
+        <v>859.9184901272292</v>
       </c>
       <c r="X37" t="n">
-        <v>47.31297010154361</v>
+        <v>625.8381679102123</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.31297010154361</v>
+        <v>402.7261067268556</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>784.5587760470498</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C38" t="n">
-        <v>784.5587760470498</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D38" t="n">
-        <v>784.5587760470498</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E38" t="n">
-        <v>784.5587760470498</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F38" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G38" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K38" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L38" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M38" t="n">
-        <v>899.6156178475343</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N38" t="n">
-        <v>1427.426901484996</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O38" t="n">
-        <v>1867.466502377325</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U38" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V38" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W38" t="n">
-        <v>1396.789931183585</v>
+        <v>2069.619899543487</v>
       </c>
       <c r="X38" t="n">
-        <v>1007.337326116642</v>
+        <v>2069.619899543487</v>
       </c>
       <c r="Y38" t="n">
-        <v>784.5587760470498</v>
+        <v>1673.129190464088</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K39" t="n">
         <v>367.0521161637701</v>
@@ -7260,43 +7262,43 @@
         <v>367.0521161637701</v>
       </c>
       <c r="M39" t="n">
-        <v>623.6437572083089</v>
+        <v>952.550121170372</v>
       </c>
       <c r="N39" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O39" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P39" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W39" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X39" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="C40" t="n">
-        <v>47.31297010154361</v>
+        <v>493.1160829509863</v>
       </c>
       <c r="D40" t="n">
-        <v>47.31297010154361</v>
+        <v>493.1160829509863</v>
       </c>
       <c r="E40" t="n">
-        <v>47.31297010154361</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F40" t="n">
-        <v>47.31297010154361</v>
+        <v>215.567024002098</v>
       </c>
       <c r="G40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7357,25 +7359,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>745.9439088256454</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V40" t="n">
-        <v>479.9645636464696</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W40" t="n">
-        <v>196.6341615776473</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X40" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.31297010154361</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="C41" t="n">
-        <v>47.31297010154361</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D41" t="n">
-        <v>47.31297010154361</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E41" t="n">
-        <v>47.31297010154361</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F41" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J41" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K41" t="n">
-        <v>503.6092283712875</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L41" t="n">
-        <v>503.6092283712875</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M41" t="n">
-        <v>1049.610128415868</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N41" t="n">
-        <v>1577.42141205333</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O41" t="n">
         <v>2017.461012945658</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S41" t="n">
-        <v>2202.609603852878</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T41" t="n">
-        <v>2202.609603852878</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U41" t="n">
-        <v>1946.856874287477</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V41" t="n">
-        <v>1604.750064990995</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W41" t="n">
-        <v>1233.751029959283</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="X41" t="n">
-        <v>844.2984248923394</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="Y41" t="n">
-        <v>447.8077158129405</v>
+        <v>1767.788966215297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L42" t="n">
-        <v>47.31297010154361</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M42" t="n">
-        <v>632.8109751081457</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N42" t="n">
-        <v>1218.308980114748</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O42" t="n">
-        <v>1734.829262705729</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P42" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X42" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>303.7011596858081</v>
+        <v>212.1338370145201</v>
       </c>
       <c r="C43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H43" t="n">
-        <v>148.2226086473021</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7591,28 +7593,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R43" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>589.1399514439072</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>303.7011596858081</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V43" t="n">
-        <v>303.7011596858081</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W43" t="n">
-        <v>303.7011596858081</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="X43" t="n">
-        <v>303.7011596858081</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="Y43" t="n">
-        <v>303.7011596858081</v>
+        <v>397.3418557058213</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1279.953688967018</v>
+        <v>1208.706155899125</v>
       </c>
       <c r="C44" t="n">
-        <v>1279.953688967018</v>
+        <v>815.5306544020552</v>
       </c>
       <c r="D44" t="n">
-        <v>1279.953688967018</v>
+        <v>430.089525618723</v>
       </c>
       <c r="E44" t="n">
-        <v>877.3701640835627</v>
+        <v>430.089525618723</v>
       </c>
       <c r="F44" t="n">
-        <v>460.4757256135405</v>
+        <v>430.089525618723</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J44" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K44" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L44" t="n">
-        <v>318.7636682303387</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M44" t="n">
-        <v>864.7645682749193</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N44" t="n">
-        <v>1392.575851912381</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O44" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P44" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S44" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T44" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U44" t="n">
-        <v>1719.881618012246</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V44" t="n">
-        <v>1680.448434678415</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W44" t="n">
-        <v>1680.448434678415</v>
+        <v>1994.649470045467</v>
       </c>
       <c r="X44" t="n">
-        <v>1680.448434678415</v>
+        <v>1605.196864978524</v>
       </c>
       <c r="Y44" t="n">
-        <v>1680.448434678415</v>
+        <v>1208.706155899125</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J45" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K45" t="n">
-        <v>480.1670983834974</v>
+        <v>194.5661265746813</v>
       </c>
       <c r="L45" t="n">
-        <v>963.7331842818107</v>
+        <v>678.1322124729945</v>
       </c>
       <c r="M45" t="n">
-        <v>1209.141762214911</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N45" t="n">
-        <v>1209.141762214911</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>373.1512011330396</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="C46" t="n">
-        <v>202.9460831990289</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K46" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M46" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N46" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O46" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P46" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q46" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R46" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S46" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T46" t="n">
-        <v>948.7599926430961</v>
+        <v>2298.950021541724</v>
       </c>
       <c r="U46" t="n">
-        <v>948.7599926430961</v>
+        <v>2013.511229783625</v>
       </c>
       <c r="V46" t="n">
-        <v>948.7599926430961</v>
+        <v>1747.531884604449</v>
       </c>
       <c r="W46" t="n">
-        <v>948.7599926430961</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="X46" t="n">
-        <v>781.4712810076976</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="Y46" t="n">
-        <v>558.3592198243409</v>
+        <v>1464.201482535627</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7987,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>296.0083050530727</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,19 +8066,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>621.5900809302176</v>
       </c>
       <c r="N3" t="n">
-        <v>151.5659933015362</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8225,16 +8227,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>393.9156246749224</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,25 +8297,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>317.0695349849027</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>265.8235510992399</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8465,7 +8467,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8529,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>183.2986537257085</v>
       </c>
       <c r="L9" t="n">
-        <v>203.2753887107832</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>468.0425993879815</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8705,7 +8707,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>464.6079711628815</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
         <v>144.4986984183922</v>
@@ -8769,22 +8771,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>238.3374974274118</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>235.8239269133934</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8927,22 +8929,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>663.8430986641874</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
         <v>144.4986984183922</v>
@@ -9006,16 +9008,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M15" t="n">
-        <v>351.5705978518764</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9164,7 +9166,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
         <v>651.5514946987026</v>
@@ -9176,10 +9178,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P17" t="n">
-        <v>464.6079711628815</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9243,25 +9245,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>183.2986537257091</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>502.5559668112506</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9401,7 +9403,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>270.6522400901343</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
         <v>651.5514946987026</v>
@@ -9413,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P20" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,16 +9482,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>317.5329465084867</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186069</v>
+        <v>99.8524217474083</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
         <v>651.5514946987026</v>
@@ -9650,13 +9652,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>212.9227975229102</v>
       </c>
       <c r="P23" t="n">
-        <v>464.6079711628815</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9714,25 +9716,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>124.0799396297074</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>235.8239269133925</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9887,7 +9889,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9951,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>454.5321323046934</v>
+        <v>308.5636983559933</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10124,13 +10126,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>359.0336792490003</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10188,25 +10190,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>203.2753887107831</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234617</v>
+        <v>502.5559668112506</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10361,10 +10363,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
         <v>144.4986984183922</v>
@@ -10425,22 +10427,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N33" t="n">
-        <v>656.228399718133</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>385.1581020577839</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10598,7 +10600,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P35" t="n">
         <v>150.3014472409252</v>
@@ -10665,16 +10667,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>674.5394322581649</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10823,13 +10825,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M38" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -10838,10 +10840,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>466.8029043711341</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10908,10 +10910,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>351.5705978518764</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>581.2880043687411</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
-        <v>457.8528328367281</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>153.2481697304917</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11142,22 +11144,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234617</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>487.5421030178609</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>281.3299123769229</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
@@ -11309,13 +11311,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P44" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11373,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>238.3374974274118</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.274574506989</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.48239428282</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>9.783194915793104</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22607,7 +22609,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -22723,10 +22725,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>171.3332126204141</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>104.0045570257506</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -22787,22 +22789,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>161.0346134683555</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,22 +22834,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>153.0219216530483</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -22939,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004151</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -23005,10 +23007,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>188.7856739495503</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>59.85708420411913</v>
       </c>
       <c r="C8" t="n">
-        <v>191.4015462735047</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,22 +23184,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>23.65888910788243</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>95.76444978932722</v>
       </c>
       <c r="H11" t="n">
-        <v>0.599120126672517</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23324,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.3184882898115</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>92.48239428282119</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23656,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23732,7 +23734,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>181.6832354660721</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>84.83273055131718</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23780,7 +23782,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>221.2655964161775</v>
@@ -23795,10 +23797,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23902,16 +23904,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5715133615489</v>
+        <v>1.95386382121012</v>
       </c>
       <c r="H19" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23941,16 +23943,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59.85708420411822</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>188.2718157159443</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24145,10 +24147,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>143.3342351986992</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24190,10 +24192,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>17.09120041412805</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>161.9927681117458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24257,13 +24259,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -24272,7 +24274,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>88.51839801714289</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24370,22 +24372,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>83.01253311791919</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>104.0045570257511</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>11.70812983780456</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>91.13567979952757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V28" t="n">
-        <v>210.2831670182379</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24680,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -24695,10 +24697,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>6.88625104525255</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>59.85708420411922</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24841,25 +24843,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>15.74304303962114</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>100.5400146614481</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -24926,10 +24928,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>403.9965601684245</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24971,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>248.6126853369015</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25075,19 +25077,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>149.728667414707</v>
       </c>
       <c r="G34" t="n">
-        <v>145.65205018427</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25154,22 +25156,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>289.1414016833906</v>
+        <v>187.7158788076807</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -25208,19 +25210,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>208.1958612258543</v>
+        <v>192.544010557426</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,22 +25393,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25445,19 +25447,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>74.22072520303954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>171.9750374197089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25549,19 +25551,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>34.9823310991469</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -25597,22 +25599,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>83.91153943350412</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>234.3750937076615</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -25634,16 +25636,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25676,7 +25678,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>3.43990729630076</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>5.330408510823986</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25801,10 +25803,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>31.86293894899198</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>30.08233799486931</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25913,25 +25915,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>299.646889703024</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26074,22 +26076,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133472</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>66.12369447580221</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>667049.4597796914</v>
+        <v>667049.4597796912</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>667049.459779691</v>
+        <v>667049.4597796911</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>667049.4597796914</v>
+        <v>667049.459779691</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>667049.4597796914</v>
+        <v>667049.459779691</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>667049.4597796914</v>
+        <v>667049.4597796912</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>667049.4597796914</v>
+        <v>667049.4597796908</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>667049.4597796914</v>
+        <v>667049.4597796907</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>667049.4597796912</v>
+        <v>667049.4597796913</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>667049.4597796913</v>
+        <v>667049.4597796912</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>667049.4597796914</v>
+        <v>667049.4597796912</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>667049.4597796914</v>
+        <v>667049.4597796908</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>667049.4597796914</v>
+        <v>667049.459779691</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>667049.4597796912</v>
+        <v>667049.459779691</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>667049.4597796911</v>
+        <v>667049.4597796914</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>180687.3047541645</v>
       </c>
       <c r="C2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="D2" t="n">
         <v>180687.3047541645</v>
@@ -26323,37 +26325,37 @@
         <v>180687.3047541646</v>
       </c>
       <c r="F2" t="n">
-        <v>180687.3047541646</v>
+        <v>180687.3047541645</v>
       </c>
       <c r="G2" t="n">
-        <v>180687.3047541646</v>
+        <v>180687.3047541645</v>
       </c>
       <c r="H2" t="n">
         <v>180687.3047541646</v>
       </c>
       <c r="I2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="J2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="K2" t="n">
         <v>180687.3047541645</v>
       </c>
       <c r="L2" t="n">
-        <v>180687.3047541647</v>
+        <v>180687.3047541645</v>
       </c>
       <c r="M2" t="n">
         <v>180687.3047541646</v>
       </c>
       <c r="N2" t="n">
-        <v>180687.3047541647</v>
+        <v>180687.3047541645</v>
       </c>
       <c r="O2" t="n">
         <v>180687.3047541646</v>
       </c>
       <c r="P2" t="n">
-        <v>180687.3047541646</v>
+        <v>180687.3047541645</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712539</v>
       </c>
       <c r="C4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712539</v>
       </c>
       <c r="D4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712539</v>
       </c>
       <c r="E4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.1269371254</v>
       </c>
       <c r="F4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712539</v>
       </c>
       <c r="G4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712539</v>
       </c>
       <c r="H4" t="n">
-        <v>57691.1269371254</v>
+        <v>57691.12693712539</v>
       </c>
       <c r="I4" t="n">
         <v>57691.12693712541</v>
       </c>
       <c r="J4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712539</v>
       </c>
       <c r="K4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712539</v>
       </c>
       <c r="L4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712539</v>
       </c>
       <c r="M4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.1269371254</v>
       </c>
       <c r="N4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712539</v>
       </c>
       <c r="O4" t="n">
         <v>57691.12693712541</v>
       </c>
       <c r="P4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712539</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144785.085451879</v>
+        <v>-144785.0854518789</v>
       </c>
       <c r="C6" t="n">
-        <v>53410.72053986597</v>
+        <v>53410.72053986607</v>
       </c>
       <c r="D6" t="n">
-        <v>53410.72053986594</v>
+        <v>53410.72053986602</v>
       </c>
       <c r="E6" t="n">
-        <v>87038.32053986606</v>
+        <v>87038.32053986604</v>
       </c>
       <c r="F6" t="n">
-        <v>87038.32053986601</v>
+        <v>87038.32053986602</v>
       </c>
       <c r="G6" t="n">
-        <v>87038.32053986606</v>
+        <v>87038.32053986596</v>
       </c>
       <c r="H6" t="n">
         <v>87038.32053986605</v>
       </c>
       <c r="I6" t="n">
+        <v>87038.32053986604</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-67701.11382573729</v>
+      </c>
+      <c r="K6" t="n">
+        <v>87038.32053986602</v>
+      </c>
+      <c r="L6" t="n">
+        <v>87038.32053986602</v>
+      </c>
+      <c r="M6" t="n">
+        <v>87038.32053986604</v>
+      </c>
+      <c r="N6" t="n">
+        <v>87038.32053986602</v>
+      </c>
+      <c r="O6" t="n">
+        <v>87038.32053986606</v>
+      </c>
+      <c r="P6" t="n">
         <v>87038.32053986599</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-67701.11382573746</v>
-      </c>
-      <c r="K6" t="n">
-        <v>87038.32053986595</v>
-      </c>
-      <c r="L6" t="n">
-        <v>87038.32053986609</v>
-      </c>
-      <c r="M6" t="n">
-        <v>87038.32053986601</v>
-      </c>
-      <c r="N6" t="n">
-        <v>87038.32053986609</v>
-      </c>
-      <c r="O6" t="n">
-        <v>87038.32053986602</v>
-      </c>
-      <c r="P6" t="n">
-        <v>87038.32053986604</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34705,19 +34707,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>151.5096066346805</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,19 +34786,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>529.2029588809057</v>
       </c>
       <c r="N3" t="n">
-        <v>66.19388044736954</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34945,16 +34947,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>244.7971333371383</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>227.4725996515694</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>180.4514382450733</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,7 +35187,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>93.70171839237514</v>
       </c>
       <c r="L9" t="n">
-        <v>113.215041853865</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>314.7944296574898</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35425,7 +35427,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>314.3065239219563</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>148.7405620940785</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>148.7405620940788</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>514.1180470664602</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M15" t="n">
-        <v>259.1834758025645</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
         <v>498.303324968211</v>
@@ -35896,10 +35898,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P17" t="n">
-        <v>314.3065239219563</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>93.70171839237574</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>417.183853957084</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>127.5938369108969</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
         <v>498.303324968211</v>
@@ -36133,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>227.4725996515685</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692951</v>
+        <v>7.465299698096393</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
         <v>498.303324968211</v>
@@ -36370,13 +36372,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>63.35896009881382</v>
       </c>
       <c r="P23" t="n">
-        <v>314.3065239219563</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>34.48300429637406</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>148.7405620940779</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36607,7 +36609,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>362.1450102553815</v>
+        <v>216.1765763066814</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36844,13 +36846,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>209.4698418249039</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>113.2150418538649</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692951</v>
+        <v>417.183853957084</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,10 +37083,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N33" t="n">
-        <v>570.8562868639664</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>292.470543168895</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37318,7 +37320,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>582.152310208853</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37543,13 +37545,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37558,10 +37560,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>316.5014571302089</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>259.1834758025645</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>495.9158915145745</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>314.7944296574907</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>400.4587381985462</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>128.0817426464313</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38029,13 +38031,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>148.7405620940785</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>370033.1901704888</v>
+        <v>364325.0343626026</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462392</v>
+        <v>3854815.050462387</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7713174.903459012</v>
+        <v>7713174.903459018</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>195.8233185115391</v>
       </c>
       <c r="H2" t="n">
-        <v>311.0590250133811</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -797,7 +797,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>220.3146016126443</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>133.7941747716301</v>
       </c>
       <c r="V4" t="n">
-        <v>91.98633910696994</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>363.4897722949609</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>232.5361573632254</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>87.4144422354058</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5.66230845704267</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>42.95384504529643</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>336.6327140501638</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>106.2148564958881</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>130.417892858628</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>313.2666781675496</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>83.93758478566066</v>
       </c>
     </row>
     <row r="12">
@@ -1514,7 +1514,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734882</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>239.0241697704909</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1621,10 +1621,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>316.5487336740557</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>29.19589089183214</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41444223540508</v>
+        <v>87.4144422354058</v>
       </c>
       <c r="I15" t="n">
         <v>48.89338144820752</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67787267091628</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S15" t="n">
         <v>133.5813703291298</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>207.5605110160266</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
@@ -1861,7 +1861,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>25.64289083446557</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V18" t="n">
-        <v>220.3146016126434</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
         <v>227.816073408046</v>
@@ -2016,16 +2016,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6176495403388</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>210.2858739186766</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>74.33364624058895</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.4536877805769</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>252.4803704224656</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.007403971462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>72.74014232123758</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>171.079233251194</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>401.0173642475174</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>116.876383545772</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>13.88784272943406</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>161.4085122120583</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2857,10 +2857,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2882,7 +2882,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>123.1874880557002</v>
       </c>
       <c r="G30" t="n">
         <v>118.8592197488542</v>
@@ -2955,25 +2955,25 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.1807224884998</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>112.6617302294008</v>
       </c>
       <c r="G32" t="n">
-        <v>5.034567788452384</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6.024008024449764</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>95.98918911403649</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>68.90114628544225</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>133.1263411214935</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -3316,19 +3316,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>87.95308749070819</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>358.4468524474201</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>293.0683194783559</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>119.0208929202426</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.1147045466214</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>123.2395907264624</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
@@ -3802,13 +3802,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>163.1726582438467</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>51.77243696894698</v>
       </c>
       <c r="G44" t="n">
-        <v>378.9487899620075</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>61.24043455025507</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>66.03149870010103</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1594.15472433407</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="C2" t="n">
-        <v>1594.15472433407</v>
+        <v>786.0349437223717</v>
       </c>
       <c r="D2" t="n">
-        <v>1594.15472433407</v>
+        <v>786.0349437223717</v>
       </c>
       <c r="E2" t="n">
-        <v>1191.571199450614</v>
+        <v>383.4514188389163</v>
       </c>
       <c r="F2" t="n">
-        <v>774.6767609805921</v>
+        <v>383.4514188389163</v>
       </c>
       <c r="G2" t="n">
-        <v>361.5140054685953</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.427801529577</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W2" t="n">
-        <v>1994.649470045467</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X2" t="n">
-        <v>1994.649470045467</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y2" t="n">
-        <v>1994.649470045467</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="3">
@@ -4403,46 +4403,46 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M3" t="n">
-        <v>1374.52913135418</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N3" t="n">
-        <v>1960.027136360782</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
         <v>1597.21382812373</v>
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4518,22 +4518,22 @@
         <v>824.8590032756731</v>
       </c>
       <c r="T4" t="n">
-        <v>589.1399514439072</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U4" t="n">
-        <v>303.7011596858081</v>
+        <v>689.7133721932184</v>
       </c>
       <c r="V4" t="n">
-        <v>210.7856656383638</v>
+        <v>689.7133721932184</v>
       </c>
       <c r="W4" t="n">
-        <v>210.7856656383638</v>
+        <v>689.7133721932184</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7856656383638</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.7856656383638</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>371.396020535053</v>
+        <v>807.6498577551392</v>
       </c>
       <c r="C5" t="n">
-        <v>371.396020535053</v>
+        <v>414.4743562580698</v>
       </c>
       <c r="D5" t="n">
-        <v>371.396020535053</v>
+        <v>414.4743562580698</v>
       </c>
       <c r="E5" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F5" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2199.13495001823</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>1975.634347577647</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U5" t="n">
-        <v>1719.881618012245</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V5" t="n">
-        <v>1377.774808715764</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W5" t="n">
-        <v>1006.775773684051</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="X5" t="n">
-        <v>771.8907662464499</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="Y5" t="n">
-        <v>771.8907662464499</v>
+        <v>1208.144603466536</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>850.6182020620834</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M6" t="n">
-        <v>1436.116207068685</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.763130931308</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O6" t="n">
-        <v>2131.283413522289</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X6" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1790.039713567123</v>
+        <v>53.0324735935059</v>
       </c>
       <c r="C7" t="n">
-        <v>1619.834595633112</v>
+        <v>53.0324735935059</v>
       </c>
       <c r="D7" t="n">
-        <v>1464.201482535627</v>
+        <v>53.0324735935059</v>
       </c>
       <c r="E7" t="n">
-        <v>1464.201482535627</v>
+        <v>53.0324735935059</v>
       </c>
       <c r="F7" t="n">
-        <v>1464.201482535627</v>
+        <v>53.0324735935059</v>
       </c>
       <c r="G7" t="n">
-        <v>1464.201482535627</v>
+        <v>53.0324735935059</v>
       </c>
       <c r="H7" t="n">
-        <v>1464.201482535627</v>
+        <v>53.0324735935059</v>
       </c>
       <c r="I7" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N7" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O7" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P7" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q7" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>2241.747515709756</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>2241.747515709756</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T7" t="n">
-        <v>2241.747515709756</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U7" t="n">
-        <v>2241.747515709756</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="V7" t="n">
-        <v>2241.747515709756</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="W7" t="n">
-        <v>2241.747515709756</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="X7" t="n">
-        <v>2198.35979344178</v>
+        <v>276.1445347768625</v>
       </c>
       <c r="Y7" t="n">
-        <v>1975.247732258424</v>
+        <v>53.0324735935059</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.31297010154359</v>
+        <v>1752.695297569654</v>
       </c>
       <c r="C8" t="n">
-        <v>47.31297010154359</v>
+        <v>1359.519796072584</v>
       </c>
       <c r="D8" t="n">
-        <v>47.31297010154359</v>
+        <v>974.0786672892518</v>
       </c>
       <c r="E8" t="n">
-        <v>47.31297010154359</v>
+        <v>571.4951424057963</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154359</v>
+        <v>154.600703935774</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154359</v>
+        <v>154.600703935774</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636596</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U8" t="n">
-        <v>1886.395173071195</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V8" t="n">
-        <v>1544.288363774713</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W8" t="n">
-        <v>1173.289328743001</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="X8" t="n">
-        <v>783.8367236760574</v>
+        <v>1752.695297569654</v>
       </c>
       <c r="Y8" t="n">
-        <v>387.3460145966586</v>
+        <v>1752.695297569654</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>140.077671309995</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083082</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.14176221491</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X9" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>817.0247473313507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>661.4659351905532</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>504.1400004035262</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4992,22 +4992,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1568.663050286384</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="C11" t="n">
-        <v>1568.663050286384</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="D11" t="n">
-        <v>1183.221921503051</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E11" t="n">
-        <v>780.6383966195958</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F11" t="n">
-        <v>363.7439581495736</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>503.6092283712866</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M11" t="n">
-        <v>1049.610128415867</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N11" t="n">
-        <v>1577.421412053329</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O11" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.648505077179</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.648505077179</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.648505077179</v>
+        <v>873.0758981825103</v>
       </c>
       <c r="Y11" t="n">
-        <v>1969.157795997781</v>
+        <v>788.2904590050753</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K12" t="n">
-        <v>194.5661265746813</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L12" t="n">
-        <v>678.1322124729945</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>1263.630217479596</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N12" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O12" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5165,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5226,25 +5226,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1965.153759365782</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="C14" t="n">
-        <v>1571.978257868713</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D14" t="n">
-        <v>1186.537129085381</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E14" t="n">
-        <v>783.9536042019251</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F14" t="n">
-        <v>367.0591657319029</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N14" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.648505077179</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.648505077179</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.648505077179</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="Y14" t="n">
-        <v>2365.648505077179</v>
+        <v>1604.036739400527</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H15" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L15" t="n">
-        <v>272.5108437565968</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M15" t="n">
-        <v>858.0088487631988</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X15" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5466,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2199.13495001823</v>
+        <v>1655.986794363964</v>
       </c>
       <c r="C17" t="n">
-        <v>1989.47786818386</v>
+        <v>1262.811292866895</v>
       </c>
       <c r="D17" t="n">
-        <v>1604.036739400527</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.453214517072</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F17" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G17" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2199.13495001823</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T17" t="n">
-        <v>2199.13495001823</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U17" t="n">
-        <v>2199.13495001823</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V17" t="n">
-        <v>2199.13495001823</v>
+        <v>1655.986794363964</v>
       </c>
       <c r="W17" t="n">
-        <v>2199.13495001823</v>
+        <v>1655.986794363964</v>
       </c>
       <c r="X17" t="n">
-        <v>2199.13495001823</v>
+        <v>1655.986794363964</v>
       </c>
       <c r="Y17" t="n">
-        <v>2199.13495001823</v>
+        <v>1655.986794363964</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H18" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K18" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L18" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>1436.116207068685</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N18" t="n">
-        <v>1849.128222486198</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O18" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5639,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>399.450245395098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>399.450245395098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>399.450245395098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>399.450245395098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>399.450245395098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>233.1697913139477</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5703,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U19" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V19" t="n">
-        <v>682.7806474639203</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W19" t="n">
-        <v>399.450245395098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X19" t="n">
-        <v>399.450245395098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>399.450245395098</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1937.641433863168</v>
+        <v>1225.097141967565</v>
       </c>
       <c r="C20" t="n">
-        <v>1937.641433863168</v>
+        <v>831.9216404704953</v>
       </c>
       <c r="D20" t="n">
-        <v>1552.200305079836</v>
+        <v>446.480511687163</v>
       </c>
       <c r="E20" t="n">
-        <v>1339.790331424607</v>
+        <v>446.480511687163</v>
       </c>
       <c r="F20" t="n">
-        <v>922.895892954585</v>
+        <v>446.480511687163</v>
       </c>
       <c r="G20" t="n">
-        <v>509.7331374425881</v>
+        <v>446.480511687163</v>
       </c>
       <c r="H20" t="n">
-        <v>185.6500870090788</v>
+        <v>122.3974612536537</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M20" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N20" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2161.142036303752</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T20" t="n">
-        <v>1937.641433863168</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U20" t="n">
-        <v>1937.641433863168</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V20" t="n">
-        <v>1937.641433863168</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="W20" t="n">
-        <v>1937.641433863168</v>
+        <v>1614.549747034508</v>
       </c>
       <c r="X20" t="n">
-        <v>1937.641433863168</v>
+        <v>1225.097141967565</v>
       </c>
       <c r="Y20" t="n">
-        <v>1937.641433863168</v>
+        <v>1225.097141967565</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F21" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K21" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L21" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>858.0088487631988</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.506853769801</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O21" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
@@ -5876,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="22">
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5934,28 +5934,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>766.8249752144843</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>766.8249752144843</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U22" t="n">
-        <v>766.8249752144843</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V22" t="n">
-        <v>766.8249752144843</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W22" t="n">
-        <v>766.8249752144843</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X22" t="n">
-        <v>766.8249752144843</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>543.7129140311276</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2058.57031924742</v>
+        <v>1039.58945324146</v>
       </c>
       <c r="C23" t="n">
-        <v>1665.394817750351</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="D23" t="n">
-        <v>1279.953688967018</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E23" t="n">
-        <v>877.3701640835627</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F23" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G23" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
         <v>191.9627430103717</v>
@@ -5995,46 +5995,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L23" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M23" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N23" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O23" t="n">
-        <v>2180.802944936231</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P23" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V23" t="n">
-        <v>2365.648505077179</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="W23" t="n">
-        <v>2365.648505077179</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="X23" t="n">
-        <v>2365.648505077179</v>
+        <v>1039.58945324146</v>
       </c>
       <c r="Y23" t="n">
-        <v>2058.57031924742</v>
+        <v>1039.58945324146</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K24" t="n">
-        <v>194.5661265746813</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L24" t="n">
-        <v>678.1322124729945</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M24" t="n">
-        <v>1263.630217479596</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N24" t="n">
-        <v>1849.128222486198</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O24" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q24" t="n">
         <v>2365.648505077179</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2180.440486385878</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>2180.440486385878</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>2180.440486385878</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>2024.881674245081</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>1951.406783011507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.152729110953</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>1627.674178072447</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>1494.579752709525</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>2365.648505077179</v>
+        <v>834.4501588705843</v>
       </c>
       <c r="T25" t="n">
-        <v>2365.648505077179</v>
+        <v>598.7311070388184</v>
       </c>
       <c r="U25" t="n">
-        <v>2365.648505077179</v>
+        <v>313.2923152807194</v>
       </c>
       <c r="V25" t="n">
-        <v>2365.648505077179</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W25" t="n">
-        <v>2365.648505077179</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>2365.648505077179</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>2365.648505077179</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1713.405066432379</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="C26" t="n">
-        <v>1713.405066432379</v>
+        <v>1035.866556811333</v>
       </c>
       <c r="D26" t="n">
-        <v>1327.963937649047</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="E26" t="n">
-        <v>1327.963937649047</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F26" t="n">
-        <v>922.895892954585</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G26" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H26" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K26" t="n">
         <v>406.2953261290054</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>952.2962261735861</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U26" t="n">
-        <v>2109.895775511778</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V26" t="n">
-        <v>2109.895775511778</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="W26" t="n">
-        <v>2109.895775511778</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="X26" t="n">
-        <v>2109.895775511778</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="Y26" t="n">
-        <v>1713.405066432379</v>
+        <v>1429.042058308403</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K27" t="n">
-        <v>160.427952321271</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L27" t="n">
-        <v>643.9940382195842</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M27" t="n">
-        <v>858.0088487631988</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6350,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6414,22 +6414,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U28" t="n">
-        <v>830.7030395665587</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V28" t="n">
-        <v>564.7236943873829</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W28" t="n">
-        <v>281.3932923185605</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.31297010154359</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="C29" t="n">
-        <v>47.31297010154359</v>
+        <v>1248.500379280328</v>
       </c>
       <c r="D29" t="n">
-        <v>47.31297010154359</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="E29" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F29" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K29" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L29" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M29" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N29" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T29" t="n">
-        <v>2202.609603852878</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U29" t="n">
-        <v>1946.856874287477</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V29" t="n">
-        <v>1604.750064990995</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W29" t="n">
-        <v>1233.751029959283</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="X29" t="n">
-        <v>844.2984248923394</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="Y29" t="n">
-        <v>447.8077158129405</v>
+        <v>1262.528503249453</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F30" t="n">
         <v>305.0574584171666</v>
@@ -6536,58 +6536,58 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K30" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L30" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>1436.116207068685</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N30" t="n">
-        <v>1849.128222486198</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O30" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W30" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X30" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D31" t="n">
-        <v>507.6880877875118</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>507.6880877875118</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
-        <v>350.3621530004848</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>350.3621530004848</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6651,22 +6651,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U31" t="n">
-        <v>663.3212008849971</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V31" t="n">
-        <v>663.3212008849971</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W31" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X31" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y31" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>769.6569440406602</v>
+        <v>1402.149495227435</v>
       </c>
       <c r="C32" t="n">
-        <v>376.4814425435907</v>
+        <v>1008.973993730366</v>
       </c>
       <c r="D32" t="n">
-        <v>376.4814425435907</v>
+        <v>623.5328649470334</v>
       </c>
       <c r="E32" t="n">
-        <v>376.4814425435907</v>
+        <v>623.5328649470334</v>
       </c>
       <c r="F32" t="n">
-        <v>376.4814425435907</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G32" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K32" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L32" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M32" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N32" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2161.142036303752</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T32" t="n">
-        <v>1937.641433863168</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U32" t="n">
-        <v>1937.641433863168</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V32" t="n">
-        <v>1937.641433863168</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W32" t="n">
-        <v>1566.642398831456</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="X32" t="n">
-        <v>1566.642398831456</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="Y32" t="n">
-        <v>1170.151689752057</v>
+        <v>1802.644240938832</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F33" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K33" t="n">
         <v>367.0521161637701</v>
       </c>
       <c r="L33" t="n">
-        <v>850.6182020620834</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M33" t="n">
-        <v>1436.116207068685</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N33" t="n">
-        <v>1436.116207068685</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O33" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P33" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6824,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="34">
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>510.2248569938795</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C34" t="n">
-        <v>510.2248569938795</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>510.2248569938795</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>510.2248569938795</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>504.1400004035262</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>335.8859465029717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6885,25 +6885,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T34" t="n">
-        <v>510.2248569938795</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U34" t="n">
-        <v>510.2248569938795</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V34" t="n">
-        <v>510.2248569938795</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W34" t="n">
-        <v>510.2248569938795</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X34" t="n">
-        <v>510.2248569938795</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y34" t="n">
-        <v>510.2248569938795</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1938.202986295758</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="C35" t="n">
-        <v>1938.202986295758</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="D35" t="n">
-        <v>1552.761857512426</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="E35" t="n">
-        <v>1150.17833262897</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="F35" t="n">
-        <v>733.2838941589479</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G35" t="n">
-        <v>320.121138646951</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H35" t="n">
         <v>185.6500870090788</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L35" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M35" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N35" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.648505077179</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S35" t="n">
-        <v>2327.655591362701</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T35" t="n">
-        <v>2327.655591362701</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U35" t="n">
-        <v>2327.655591362701</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V35" t="n">
-        <v>2327.655591362701</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W35" t="n">
-        <v>2327.655591362701</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X35" t="n">
-        <v>1938.202986295758</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y35" t="n">
-        <v>1938.202986295758</v>
+        <v>579.3302549026308</v>
       </c>
     </row>
     <row r="36">
@@ -7010,13 +7010,13 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K36" t="n">
         <v>367.0521161637701</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>217.5180880355544</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
         <v>479.5672294235493</v>
@@ -7128,19 +7128,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U37" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V37" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W37" t="n">
-        <v>859.9184901272292</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X37" t="n">
-        <v>625.8381679102123</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y37" t="n">
-        <v>402.7261067268556</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1673.129190464088</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="C38" t="n">
-        <v>1279.953688967018</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="D38" t="n">
-        <v>1279.953688967018</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="E38" t="n">
-        <v>877.3701640835627</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F38" t="n">
-        <v>460.4757256135405</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K38" t="n">
-        <v>47.31297010154359</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L38" t="n">
-        <v>503.6092283712866</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M38" t="n">
-        <v>1049.610128415867</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N38" t="n">
-        <v>1577.421412053329</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O38" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U38" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V38" t="n">
-        <v>2365.648505077179</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W38" t="n">
-        <v>2069.619899543487</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="X38" t="n">
-        <v>2069.619899543487</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="Y38" t="n">
-        <v>1673.129190464088</v>
+        <v>1377.774808715765</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171665</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K39" t="n">
         <v>367.0521161637701</v>
@@ -7262,43 +7262,43 @@
         <v>367.0521161637701</v>
       </c>
       <c r="M39" t="n">
-        <v>952.550121170372</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X39" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C40" t="n">
-        <v>493.1160829509863</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D40" t="n">
-        <v>493.1160829509863</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>372.8929587891251</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>215.567024002098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7359,25 +7359,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T40" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U40" t="n">
-        <v>663.3212008849971</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V40" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W40" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X40" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y40" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1604.036739400527</v>
+        <v>171.7974051787783</v>
       </c>
       <c r="C41" t="n">
-        <v>1604.036739400527</v>
+        <v>171.7974051787783</v>
       </c>
       <c r="D41" t="n">
-        <v>1604.036739400527</v>
+        <v>171.7974051787783</v>
       </c>
       <c r="E41" t="n">
-        <v>1201.453214517072</v>
+        <v>171.7974051787783</v>
       </c>
       <c r="F41" t="n">
-        <v>784.5587760470498</v>
+        <v>171.7974051787783</v>
       </c>
       <c r="G41" t="n">
-        <v>371.396020535053</v>
+        <v>171.7974051787783</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154359</v>
+        <v>171.7974051787783</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>47.31297010154359</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L41" t="n">
-        <v>503.6092283712866</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M41" t="n">
-        <v>1049.610128415867</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N41" t="n">
-        <v>1577.421412053329</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O41" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U41" t="n">
-        <v>2109.895775511778</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V41" t="n">
-        <v>1767.788966215297</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W41" t="n">
-        <v>1767.788966215297</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X41" t="n">
-        <v>1767.788966215297</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y41" t="n">
-        <v>1767.788966215297</v>
+        <v>572.2921508901752</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154359</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L42" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M42" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O42" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X42" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>212.1338370145201</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7608,13 +7608,13 @@
         <v>397.3418557058213</v>
       </c>
       <c r="W43" t="n">
-        <v>397.3418557058213</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X43" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y43" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1208.706155899125</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="C44" t="n">
-        <v>815.5306544020552</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="D44" t="n">
-        <v>430.089525618723</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="E44" t="n">
-        <v>430.089525618723</v>
+        <v>975.1912838323092</v>
       </c>
       <c r="F44" t="n">
-        <v>430.089525618723</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
         <v>406.2953261290054</v>
       </c>
       <c r="L44" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M44" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N44" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T44" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U44" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V44" t="n">
-        <v>2365.648505077179</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W44" t="n">
-        <v>1994.649470045467</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="X44" t="n">
-        <v>1605.196864978524</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="Y44" t="n">
-        <v>1208.706155899125</v>
+        <v>1377.774808715765</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K45" t="n">
-        <v>194.5661265746813</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L45" t="n">
-        <v>678.1322124729945</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M45" t="n">
-        <v>1263.630217479596</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N45" t="n">
-        <v>1849.128222486198</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O45" t="n">
-        <v>2365.648505077179</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P45" t="n">
         <v>2365.648505077179</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1464.201482535627</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="C46" t="n">
-        <v>1464.201482535627</v>
+        <v>684.084884027408</v>
       </c>
       <c r="D46" t="n">
-        <v>1464.201482535627</v>
+        <v>528.4517709299226</v>
       </c>
       <c r="E46" t="n">
-        <v>1464.201482535627</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F46" t="n">
-        <v>1464.201482535627</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>2365.648505077179</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T46" t="n">
-        <v>2298.950021541724</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.511229783625</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V46" t="n">
-        <v>1747.531884604449</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="W46" t="n">
-        <v>1464.201482535627</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="X46" t="n">
-        <v>1464.201482535627</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="Y46" t="n">
-        <v>1464.201482535627</v>
+        <v>745.9439088256454</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7990,16 +7990,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>301.1357168357237</v>
       </c>
       <c r="O2" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8060,25 +8060,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>621.5900809302176</v>
+        <v>674.5394322581658</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>447.7345042973469</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,25 +8294,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>265.8235510992399</v>
+        <v>230.2980308590267</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8455,7 +8455,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8464,16 +8464,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>458.1505014870046</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>183.2986537257085</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>230.2980308590267</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8692,16 +8692,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>468.0425993879815</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8710,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>238.3374974274118</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
@@ -8938,16 +8938,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O14" t="n">
-        <v>545.7463662600587</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186067</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9251,19 +9251,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>502.5559668112506</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600802</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9415,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9488,19 +9488,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>99.8524217474083</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600802</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9643,19 +9643,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
-        <v>651.5514946987026</v>
+        <v>470.2375325962349</v>
       </c>
       <c r="M23" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N23" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>212.9227975229102</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
         <v>331.2113854294513</v>
@@ -9719,25 +9719,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>124.0799396297074</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600792</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9880,22 +9880,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N26" t="n">
-        <v>682.2612020826953</v>
+        <v>593.8453860234358</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>308.5636983559933</v>
+        <v>454.5321323046934</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10114,10 +10114,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M29" t="n">
         <v>701.2411122488187</v>
@@ -10126,13 +10126,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10199,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186067</v>
+        <v>270.6001074205032</v>
       </c>
       <c r="N30" t="n">
-        <v>502.5559668112506</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10351,10 +10351,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10363,13 +10363,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>399.6354845339695</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10433,22 +10433,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186067</v>
+        <v>588.303013563887</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O33" t="n">
-        <v>385.1581020577839</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
@@ -10594,16 +10594,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488187</v>
+        <v>155.1237765063188</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10825,25 +10825,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>682.2612020826953</v>
+        <v>540.0265064010113</v>
       </c>
       <c r="O38" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P38" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10910,10 +10910,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186067</v>
+        <v>351.5705978518764</v>
       </c>
       <c r="N39" t="n">
-        <v>581.2880043687411</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10922,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>311.2540453751045</v>
       </c>
       <c r="L41" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11077,7 +11077,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
         <v>144.4986984183922</v>
@@ -11141,16 +11141,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186067</v>
+        <v>454.5321323046934</v>
       </c>
       <c r="N42" t="n">
-        <v>415.8062469585524</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11302,7 +11302,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>651.5514946987026</v>
+        <v>603.2495781888792</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
@@ -11311,7 +11311,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
         <v>150.3014472409252</v>
@@ -11378,22 +11378,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>238.3374974274118</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -22549,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -22558,16 +22558,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>213.2078094453378</v>
       </c>
       <c r="H2" t="n">
-        <v>9.783194915793104</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -22725,10 +22725,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>148.790229068888</v>
       </c>
       <c r="V4" t="n">
-        <v>171.3332126204141</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>35.06791733965997</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -22801,7 +22801,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22840,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>153.0219216530483</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -22962,7 +22962,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>126.1011726522502</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -23007,7 +23007,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>188.7856739495503</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59.85708420411913</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>214.6273634332861</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23077,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23184,22 +23184,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>23.65888910788243</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -23232,16 +23232,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>95.76444978932722</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23308,25 +23308,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>308.5882172029442</v>
       </c>
     </row>
     <row r="12">
@@ -23421,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.3618613134482</v>
@@ -23475,16 +23475,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>24.2953819568931</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>92.48239428282119</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23545,19 +23545,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>338.0931537895633</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23734,13 +23734,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>181.6832354660721</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>313.0428503690512</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -23904,16 +23904,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>1.95386382121012</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I19" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23971,25 +23971,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>188.2718157159443</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>62.62009949787087</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>143.3342351986992</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>136.7633760596331</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24259,22 +24259,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>88.51839801714289</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24372,22 +24372,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>83.01253311791919</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>87.62118754448949</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -24445,25 +24445,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>210.5074842443049</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>11.70812983780456</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24654,19 +24654,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>375.3559037526646</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
@@ -24730,13 +24730,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>59.85708420411922</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24843,25 +24843,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>15.74304303962114</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>300.0637638559211</v>
       </c>
       <c r="G32" t="n">
-        <v>403.9965601684245</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
@@ -24979,7 +24979,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -25086,16 +25086,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>149.728667414707</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -25125,19 +25125,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>327.5886519688406</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>187.7158788076807</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25368,19 +25368,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>192.544010557426</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>40.11083718720079</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>74.22072520303954</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25551,19 +25551,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>34.9823310991469</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -25599,16 +25599,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>87.62118754448957</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>234.3750937076615</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -25636,19 +25636,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>13.71415501199746</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>5.330408510823986</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,25 +25867,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>360.953057116375</v>
       </c>
       <c r="G44" t="n">
-        <v>30.08233799486931</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26025,19 +26025,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>107.2626322044156</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26073,19 +26073,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>167.3303626133472</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>667049.4597796912</v>
+        <v>667049.4597796913</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>667049.4597796911</v>
+        <v>667049.4597796913</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>667049.459779691</v>
+        <v>667049.4597796913</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>667049.459779691</v>
+        <v>667049.4597796916</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>667049.459779691</v>
+        <v>667049.4597796916</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>667049.4597796912</v>
+        <v>667049.4597796916</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>667049.4597796908</v>
+        <v>667049.4597796916</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>667049.4597796907</v>
+        <v>667049.4597796914</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>667049.4597796913</v>
+        <v>667049.4597796916</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>667049.4597796912</v>
+        <v>667049.4597796916</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>667049.4597796912</v>
+        <v>667049.4597796913</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>667049.4597796908</v>
+        <v>667049.4597796916</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>667049.459779691</v>
+        <v>667049.4597796914</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>667049.459779691</v>
+        <v>667049.4597796916</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>667049.4597796914</v>
+        <v>667049.459779691</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         <v>180687.3047541646</v>
       </c>
       <c r="D2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="E2" t="n">
         <v>180687.3047541646</v>
       </c>
       <c r="F2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="G2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="H2" t="n">
         <v>180687.3047541646</v>
@@ -26340,7 +26340,7 @@
         <v>180687.3047541646</v>
       </c>
       <c r="K2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="L2" t="n">
         <v>180687.3047541645</v>
@@ -26355,7 +26355,7 @@
         <v>180687.3047541646</v>
       </c>
       <c r="P2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57691.12693712539</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="C4" t="n">
-        <v>57691.12693712539</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="D4" t="n">
-        <v>57691.12693712539</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="E4" t="n">
-        <v>57691.1269371254</v>
+        <v>57691.12693712541</v>
       </c>
       <c r="F4" t="n">
-        <v>57691.12693712539</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="G4" t="n">
-        <v>57691.12693712539</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="H4" t="n">
-        <v>57691.12693712539</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="I4" t="n">
         <v>57691.12693712541</v>
       </c>
       <c r="J4" t="n">
-        <v>57691.12693712539</v>
+        <v>57691.12693712541</v>
       </c>
       <c r="K4" t="n">
-        <v>57691.12693712539</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="L4" t="n">
-        <v>57691.12693712539</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="M4" t="n">
-        <v>57691.1269371254</v>
+        <v>57691.12693712541</v>
       </c>
       <c r="N4" t="n">
-        <v>57691.12693712539</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="O4" t="n">
+        <v>57691.12693712542</v>
+      </c>
+      <c r="P4" t="n">
         <v>57691.12693712541</v>
-      </c>
-      <c r="P4" t="n">
-        <v>57691.12693712539</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144785.0854518789</v>
+        <v>-145459.1115780991</v>
       </c>
       <c r="C6" t="n">
-        <v>53410.72053986607</v>
+        <v>52736.69441364599</v>
       </c>
       <c r="D6" t="n">
-        <v>53410.72053986602</v>
+        <v>52736.69441364596</v>
       </c>
       <c r="E6" t="n">
-        <v>87038.32053986604</v>
+        <v>86364.29441364598</v>
       </c>
       <c r="F6" t="n">
-        <v>87038.32053986602</v>
+        <v>86364.29441364597</v>
       </c>
       <c r="G6" t="n">
-        <v>87038.32053986596</v>
+        <v>86364.294413646</v>
       </c>
       <c r="H6" t="n">
-        <v>87038.32053986605</v>
+        <v>86364.29441364603</v>
       </c>
       <c r="I6" t="n">
-        <v>87038.32053986604</v>
+        <v>86364.29441364601</v>
       </c>
       <c r="J6" t="n">
-        <v>-67701.11382573729</v>
+        <v>-68375.13995195745</v>
       </c>
       <c r="K6" t="n">
-        <v>87038.32053986602</v>
+        <v>86364.294413646</v>
       </c>
       <c r="L6" t="n">
-        <v>87038.32053986602</v>
+        <v>86364.29441364591</v>
       </c>
       <c r="M6" t="n">
-        <v>87038.32053986604</v>
+        <v>86364.29441364598</v>
       </c>
       <c r="N6" t="n">
-        <v>87038.32053986602</v>
+        <v>86364.29441364594</v>
       </c>
       <c r="O6" t="n">
-        <v>87038.32053986606</v>
+        <v>86364.294413646</v>
       </c>
       <c r="P6" t="n">
-        <v>87038.32053986599</v>
+        <v>86364.29441364598</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34710,16 +34710,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>152.0172254979396</v>
       </c>
       <c r="O2" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>529.2029588809057</v>
+        <v>582.1523102088539</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>298.6160129595628</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>180.4514382450733</v>
+        <v>144.9259180048601</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35184,16 +35184,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>309.0320101492205</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>93.70171839237514</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>144.9259180048601</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35412,16 +35412,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>314.7944296574898</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35430,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>148.7405620940785</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>362.6084404317796</v>
@@ -35658,16 +35658,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O14" t="n">
-        <v>396.1825288359623</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35746,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35971,19 +35971,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>417.183853957084</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36135,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36208,19 +36208,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>7.465299698096393</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,19 +36363,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>63.35896009881382</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
         <v>186.7126870110591</v>
@@ -36439,25 +36439,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>34.48300429637406</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,22 +36600,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>444.7268946856517</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>216.1765763066814</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
@@ -36846,13 +36846,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36919,19 +36919,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692948</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="N30" t="n">
-        <v>417.183853957084</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37083,13 +37083,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>250.0716471098731</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692948</v>
+        <v>495.9158915145751</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O33" t="n">
-        <v>292.470543168895</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37314,16 +37314,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>5.39872490859157</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449111</v>
+        <v>390.9080150632272</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37630,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692948</v>
+        <v>259.1834758025644</v>
       </c>
       <c r="N39" t="n">
-        <v>495.9158915145745</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37642,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="L41" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37797,7 +37797,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692948</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="N42" t="n">
-        <v>330.4341341043857</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37879,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>450.0014084583875</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38031,7 +38031,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>148.7405620940785</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
